--- a/jor/结果jsp8_1.xlsx
+++ b/jor/结果jsp8_1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>ITS</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>jsp8</t>
+  </si>
+  <si>
+    <t>ITS</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>时间/s</t>
+  </si>
+  <si>
+    <t>迭代次数</t>
   </si>
 </sst>
 </file>
@@ -405,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W800"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A796" workbookViewId="0">
-      <selection activeCell="H804" sqref="H804"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -853,7 +865,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -876,7 +888,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -899,7 +911,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -922,7 +934,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -945,7 +957,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -968,7 +980,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -991,7 +1003,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1014,7 +1026,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1037,7 +1049,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1060,7 +1072,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1083,7 +1095,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1105,8 +1117,14 @@
       <c r="M27">
         <v>194</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q27" t="s">
+        <v>15</v>
+      </c>
+      <c r="T27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1128,8 +1146,26 @@
       <c r="M28">
         <v>194</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28" t="s">
+        <v>18</v>
+      </c>
+      <c r="S28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s">
+        <v>17</v>
+      </c>
+      <c r="U28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1151,8 +1187,26 @@
       <c r="M29">
         <v>194</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>175</v>
+      </c>
+      <c r="Q29">
+        <v>4.8289999999999997</v>
+      </c>
+      <c r="R29">
+        <v>84</v>
+      </c>
+      <c r="S29">
+        <v>175</v>
+      </c>
+      <c r="T29">
+        <v>31.088999999999999</v>
+      </c>
+      <c r="U29">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1175,7 +1229,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1198,7 +1252,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
